--- a/excel/testdata/vpt_java_test.xlsx
+++ b/excel/testdata/vpt_java_test.xlsx
@@ -5575,4182 +5575,4182 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>1306</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>1307</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>1309</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>1310</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>1311</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>1312</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>1313</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>1314</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>1306</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>1307</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>1315</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>1310</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>1316</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>1312</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>1313</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>1314</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>1317</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>1318</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>1315</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>1310</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>1316</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>1319</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>1320</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>1321</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>1322</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>1323</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>1324</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>1325</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>1326</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>1327</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>1328</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>1329</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>1330</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>1331</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>1324</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
-        <v>1325</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>1326</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>1332</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>1333</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>1334</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>1335</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>1336</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>1337</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>1338</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>1340</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>1341</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>1342</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>1343</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>1344</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>1308</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>1337</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>1338</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>1345</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>1346</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s">
-        <v>1347</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>1348</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>1349</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>1337</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>1338</v>
+        <v>63</v>
       </c>
       <c r="J9" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>1345</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M9" t="s">
-        <v>1346</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>1350</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>1351</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>1352</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>1337</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>1338</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>1353</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s">
-        <v>1354</v>
+        <v>69</v>
       </c>
       <c r="N10" t="s">
-        <v>1355</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>1356</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>1357</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>1337</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>1338</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>1353</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
         <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>1354</v>
+        <v>77</v>
       </c>
       <c r="N11" t="s">
-        <v>1355</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>1358</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>1359</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>1337</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>1338</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>1360</v>
+        <v>76</v>
       </c>
       <c r="L12" t="s">
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>1361</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>1362</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>1363</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>1364</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>1308</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>1337</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>1338</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>1353</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>1365</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>948</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>1366</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>1367</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>1308</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>1337</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>1338</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>1368</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>1369</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>1370</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>1371</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>1372</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>1308</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>1337</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>1338</v>
+        <v>95</v>
       </c>
       <c r="J15" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>1373</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s">
-        <v>1374</v>
+        <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>1375</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>1376</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>1377</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
         <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>1378</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>1379</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
-        <v>1380</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>1381</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>1382</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
         <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>1383</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>1384</v>
+        <v>108</v>
       </c>
       <c r="N17" t="s">
-        <v>1380</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>1385</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>1386</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>1383</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>1384</v>
+        <v>112</v>
       </c>
       <c r="N18" t="s">
-        <v>1380</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>1387</v>
+        <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>1388</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>1389</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>1390</v>
+        <v>112</v>
       </c>
       <c r="N19" t="s">
-        <v>1391</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>1392</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>1393</v>
+        <v>116</v>
       </c>
       <c r="F20" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J20" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>1394</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>1395</v>
+        <v>108</v>
       </c>
       <c r="N20" t="s">
-        <v>1396</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>1397</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>1398</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J21" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>1399</v>
+        <v>119</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>1400</v>
+        <v>120</v>
       </c>
       <c r="N21" t="s">
-        <v>1396</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>1401</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>1402</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J22" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>1378</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>1403</v>
+        <v>125</v>
       </c>
       <c r="N22" t="s">
-        <v>1404</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>1405</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>1406</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>1378</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s">
         <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>1407</v>
+        <v>125</v>
       </c>
       <c r="N23" t="s">
-        <v>1408</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>1409</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
-        <v>1406</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J24" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>1410</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s">
         <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>1407</v>
+        <v>132</v>
       </c>
       <c r="N24" t="s">
-        <v>1408</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>1411</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>1412</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J25" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>1378</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
       </c>
       <c r="M25" t="s">
-        <v>1413</v>
+        <v>137</v>
       </c>
       <c r="N25" t="s">
-        <v>1414</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>1415</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>1416</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J26" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>1378</v>
+        <v>136</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>1417</v>
+        <v>137</v>
       </c>
       <c r="N26" t="s">
-        <v>1414</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>1418</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>1419</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J27" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>1378</v>
+        <v>144</v>
       </c>
       <c r="L27" t="s">
         <v>25</v>
       </c>
       <c r="M27" t="s">
-        <v>1420</v>
+        <v>145</v>
       </c>
       <c r="N27" t="s">
-        <v>1421</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>1422</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>1423</v>
+        <v>147</v>
       </c>
       <c r="F28" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I28" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>1378</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s">
         <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>1420</v>
+        <v>149</v>
       </c>
       <c r="N28" t="s">
-        <v>1421</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>1424</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>1425</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>1378</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s">
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>1420</v>
+        <v>153</v>
       </c>
       <c r="N29" t="s">
-        <v>1421</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>1426</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
-        <v>1427</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>1378</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s">
         <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>1428</v>
+        <v>157</v>
       </c>
       <c r="N30" t="s">
-        <v>1429</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>1430</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>1431</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J31" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>1378</v>
+        <v>161</v>
       </c>
       <c r="L31" t="s">
         <v>25</v>
       </c>
       <c r="M31" t="s">
-        <v>1428</v>
+        <v>162</v>
       </c>
       <c r="N31" t="s">
-        <v>1429</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>1432</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>1433</v>
+        <v>165</v>
       </c>
       <c r="F32" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J32" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>1434</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
       </c>
       <c r="M32" t="s">
-        <v>1435</v>
+        <v>167</v>
       </c>
       <c r="N32" t="s">
-        <v>1436</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>1437</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>1438</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J33" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>1434</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s">
         <v>25</v>
       </c>
       <c r="M33" t="s">
-        <v>1439</v>
+        <v>171</v>
       </c>
       <c r="N33" t="s">
-        <v>1436</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>1440</v>
+        <v>173</v>
       </c>
       <c r="E34" t="s">
-        <v>1441</v>
+        <v>174</v>
       </c>
       <c r="F34" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K34" t="s">
-        <v>1434</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s">
         <v>25</v>
       </c>
       <c r="M34" t="s">
-        <v>1439</v>
+        <v>112</v>
       </c>
       <c r="N34" t="s">
-        <v>802</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>1442</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>1443</v>
+        <v>177</v>
       </c>
       <c r="F35" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>1434</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s">
         <v>25</v>
       </c>
       <c r="M35" t="s">
-        <v>1444</v>
+        <v>178</v>
       </c>
       <c r="N35" t="s">
-        <v>1445</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>1446</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>1447</v>
+        <v>180</v>
       </c>
       <c r="F36" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
         <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I36" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J36" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>1448</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s">
         <v>25</v>
       </c>
       <c r="M36" t="s">
-        <v>1449</v>
+        <v>178</v>
       </c>
       <c r="N36" t="s">
-        <v>1450</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>1451</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>1452</v>
+        <v>182</v>
       </c>
       <c r="F37" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J37" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>1453</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>1454</v>
+        <v>112</v>
       </c>
       <c r="N37" t="s">
-        <v>1455</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>1456</v>
+        <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>1457</v>
+        <v>184</v>
       </c>
       <c r="F38" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I38" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J38" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>1458</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s">
         <v>25</v>
       </c>
       <c r="M38" t="s">
-        <v>1459</v>
+        <v>108</v>
       </c>
       <c r="N38" t="s">
-        <v>1460</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>1461</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>1462</v>
+        <v>186</v>
       </c>
       <c r="F39" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J39" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>1463</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M39" t="s">
-        <v>1464</v>
+        <v>112</v>
       </c>
       <c r="N39" t="s">
-        <v>1465</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>1466</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>1467</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J40" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>1463</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>1464</v>
+        <v>189</v>
       </c>
       <c r="N40" t="s">
-        <v>1468</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>1469</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
-        <v>1470</v>
+        <v>192</v>
       </c>
       <c r="F41" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J41" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>1463</v>
+        <v>193</v>
       </c>
       <c r="L41" t="s">
         <v>25</v>
       </c>
       <c r="M41" t="s">
-        <v>1471</v>
+        <v>194</v>
       </c>
       <c r="N41" t="s">
-        <v>1472</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>1473</v>
+        <v>196</v>
       </c>
       <c r="E42" t="s">
-        <v>1474</v>
+        <v>197</v>
       </c>
       <c r="F42" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K42" t="s">
-        <v>1475</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s">
         <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>1476</v>
+        <v>137</v>
       </c>
       <c r="N42" t="s">
-        <v>1477</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>1478</v>
+        <v>199</v>
       </c>
       <c r="E43" t="s">
-        <v>1479</v>
+        <v>200</v>
       </c>
       <c r="F43" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>1475</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s">
         <v>25</v>
       </c>
       <c r="M43" t="s">
-        <v>1476</v>
+        <v>162</v>
       </c>
       <c r="N43" t="s">
-        <v>1480</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>1481</v>
+        <v>202</v>
       </c>
       <c r="E44" t="s">
-        <v>1482</v>
+        <v>203</v>
       </c>
       <c r="F44" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J44" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>1475</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s">
         <v>25</v>
       </c>
       <c r="M44" t="s">
-        <v>1483</v>
+        <v>162</v>
       </c>
       <c r="N44" t="s">
-        <v>1484</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>1485</v>
+        <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>1486</v>
+        <v>205</v>
       </c>
       <c r="F45" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J45" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>1475</v>
+        <v>206</v>
       </c>
       <c r="L45" t="s">
         <v>25</v>
       </c>
       <c r="M45" t="s">
-        <v>1476</v>
+        <v>207</v>
       </c>
       <c r="N45" t="s">
-        <v>1487</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>1488</v>
+        <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>1489</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J46" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>1475</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s">
         <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>1490</v>
+        <v>112</v>
       </c>
       <c r="N46" t="s">
-        <v>1491</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>1492</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>1493</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I47" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J47" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>1463</v>
+        <v>193</v>
       </c>
       <c r="L47" t="s">
         <v>25</v>
       </c>
       <c r="M47" t="s">
-        <v>1494</v>
+        <v>213</v>
       </c>
       <c r="N47" t="s">
-        <v>1495</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>1496</v>
+        <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>1497</v>
+        <v>216</v>
       </c>
       <c r="F48" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H48" t="s">
-        <v>1337</v>
+        <v>100</v>
       </c>
       <c r="I48" t="s">
-        <v>1338</v>
+        <v>101</v>
       </c>
       <c r="J48" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>1463</v>
+        <v>193</v>
       </c>
       <c r="L48" t="s">
         <v>25</v>
       </c>
       <c r="M48" t="s">
-        <v>1494</v>
+        <v>213</v>
       </c>
       <c r="N48" t="s">
-        <v>1498</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>1499</v>
+        <v>217</v>
       </c>
       <c r="E49" t="s">
-        <v>1500</v>
+        <v>218</v>
       </c>
       <c r="F49" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>1337</v>
+        <v>219</v>
       </c>
       <c r="I49" t="s">
-        <v>1338</v>
+        <v>220</v>
       </c>
       <c r="J49" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>1463</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s">
         <v>25</v>
       </c>
       <c r="M49" t="s">
-        <v>1494</v>
+        <v>222</v>
       </c>
       <c r="N49" t="s">
-        <v>1501</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>1502</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
-        <v>1503</v>
+        <v>225</v>
       </c>
       <c r="F50" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>1337</v>
+        <v>219</v>
       </c>
       <c r="I50" t="s">
-        <v>1338</v>
+        <v>220</v>
       </c>
       <c r="J50" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>1463</v>
+        <v>226</v>
       </c>
       <c r="L50" t="s">
         <v>25</v>
       </c>
       <c r="M50" t="s">
-        <v>1494</v>
+        <v>227</v>
       </c>
       <c r="N50" t="s">
-        <v>1504</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>1505</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>1506</v>
+        <v>230</v>
       </c>
       <c r="F51" t="s">
-        <v>1308</v>
+        <v>23</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>1337</v>
+        <v>219</v>
       </c>
       <c r="I51" t="s">
-        <v>1338</v>
+        <v>220</v>
       </c>
       <c r="J51" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>1475</v>
+        <v>231</v>
       </c>
       <c r="L51" t="s">
         <v>25</v>
       </c>
       <c r="M51" t="s">
-        <v>1494</v>
+        <v>23</v>
       </c>
       <c r="N51" t="s">
-        <v>1507</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>1508</v>
+        <v>232</v>
       </c>
       <c r="E52" t="s">
-        <v>1509</v>
+        <v>233</v>
       </c>
       <c r="F52" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H52" t="s">
-        <v>1337</v>
+        <v>234</v>
       </c>
       <c r="I52" t="s">
-        <v>1338</v>
+        <v>235</v>
       </c>
       <c r="J52" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>1475</v>
+        <v>23</v>
       </c>
       <c r="L52" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M52" t="s">
-        <v>1494</v>
+        <v>236</v>
       </c>
       <c r="N52" t="s">
-        <v>1510</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>1511</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>1512</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>1337</v>
+        <v>240</v>
       </c>
       <c r="I53" t="s">
-        <v>1338</v>
+        <v>241</v>
       </c>
       <c r="J53" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>1513</v>
+        <v>242</v>
       </c>
       <c r="L53" t="s">
         <v>25</v>
       </c>
       <c r="M53" t="s">
-        <v>1514</v>
+        <v>243</v>
       </c>
       <c r="N53" t="s">
-        <v>1515</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>1516</v>
+        <v>245</v>
       </c>
       <c r="E54" t="s">
-        <v>1517</v>
+        <v>246</v>
       </c>
       <c r="F54" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>1337</v>
+        <v>240</v>
       </c>
       <c r="I54" t="s">
-        <v>1338</v>
+        <v>241</v>
       </c>
       <c r="J54" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>1518</v>
+        <v>247</v>
       </c>
       <c r="L54" t="s">
         <v>25</v>
       </c>
       <c r="M54" t="s">
-        <v>1519</v>
+        <v>248</v>
       </c>
       <c r="N54" t="s">
-        <v>1520</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>1521</v>
+        <v>238</v>
       </c>
       <c r="E55" t="s">
-        <v>1522</v>
+        <v>239</v>
       </c>
       <c r="F55" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>1337</v>
+        <v>250</v>
       </c>
       <c r="I55" t="s">
-        <v>1338</v>
+        <v>241</v>
       </c>
       <c r="J55" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>1523</v>
+        <v>242</v>
       </c>
       <c r="L55" t="s">
         <v>25</v>
       </c>
       <c r="M55" t="s">
-        <v>1524</v>
+        <v>243</v>
       </c>
       <c r="N55" t="s">
-        <v>1525</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>1526</v>
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>1527</v>
+        <v>246</v>
       </c>
       <c r="F56" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>1337</v>
+        <v>250</v>
       </c>
       <c r="I56" t="s">
-        <v>1338</v>
+        <v>241</v>
       </c>
       <c r="J56" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>1528</v>
+        <v>247</v>
       </c>
       <c r="L56" t="s">
         <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>1524</v>
+        <v>248</v>
       </c>
       <c r="N56" t="s">
-        <v>1529</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>1530</v>
+        <v>251</v>
       </c>
       <c r="E57" t="s">
-        <v>1531</v>
+        <v>252</v>
       </c>
       <c r="F57" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>1337</v>
+        <v>253</v>
       </c>
       <c r="I57" t="s">
-        <v>1338</v>
+        <v>254</v>
       </c>
       <c r="J57" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>1532</v>
+        <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M57" t="s">
-        <v>1533</v>
+        <v>255</v>
       </c>
       <c r="N57" t="s">
-        <v>1534</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>1535</v>
+        <v>257</v>
       </c>
       <c r="E58" t="s">
-        <v>1536</v>
+        <v>258</v>
       </c>
       <c r="F58" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>1337</v>
+        <v>253</v>
       </c>
       <c r="I58" t="s">
-        <v>1338</v>
+        <v>254</v>
       </c>
       <c r="J58" t="s">
-        <v>1339</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>1532</v>
+        <v>23</v>
       </c>
       <c r="L58" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M58" t="s">
-        <v>1537</v>
+        <v>259</v>
       </c>
       <c r="N58" t="s">
-        <v>1538</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>1539</v>
+        <v>251</v>
       </c>
       <c r="E59" t="s">
-        <v>1540</v>
+        <v>252</v>
       </c>
       <c r="F59" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>1541</v>
+        <v>261</v>
       </c>
       <c r="I59" t="s">
-        <v>1542</v>
+        <v>262</v>
       </c>
       <c r="J59" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>1544</v>
+        <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M59" t="s">
-        <v>1545</v>
+        <v>255</v>
       </c>
       <c r="N59" t="s">
-        <v>1546</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>1547</v>
+        <v>263</v>
       </c>
       <c r="E60" t="s">
-        <v>1548</v>
+        <v>264</v>
       </c>
       <c r="F60" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>1541</v>
+        <v>261</v>
       </c>
       <c r="I60" t="s">
-        <v>1542</v>
+        <v>262</v>
       </c>
       <c r="J60" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>1549</v>
+        <v>23</v>
       </c>
       <c r="L60" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M60" t="s">
-        <v>1550</v>
+        <v>265</v>
       </c>
       <c r="N60" t="s">
-        <v>1551</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>1552</v>
+        <v>257</v>
       </c>
       <c r="E61" t="s">
-        <v>1553</v>
+        <v>258</v>
       </c>
       <c r="F61" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>1541</v>
+        <v>261</v>
       </c>
       <c r="I61" t="s">
-        <v>1542</v>
+        <v>262</v>
       </c>
       <c r="J61" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>1554</v>
+        <v>23</v>
       </c>
       <c r="L61" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M61" t="s">
-        <v>1555</v>
+        <v>259</v>
       </c>
       <c r="N61" t="s">
-        <v>1556</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>1557</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>1558</v>
+        <v>268</v>
       </c>
       <c r="F62" t="s">
-        <v>1308</v>
+        <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s">
-        <v>1541</v>
+        <v>261</v>
       </c>
       <c r="I62" t="s">
-        <v>1542</v>
+        <v>262</v>
       </c>
       <c r="J62" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>1559</v>
+        <v>269</v>
       </c>
       <c r="L62" t="s">
         <v>25</v>
       </c>
       <c r="M62" t="s">
-        <v>1560</v>
+        <v>23</v>
       </c>
       <c r="N62" t="s">
-        <v>1561</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>1562</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>1563</v>
+        <v>271</v>
       </c>
       <c r="F63" t="s">
-        <v>1308</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s">
-        <v>1541</v>
+        <v>261</v>
       </c>
       <c r="I63" t="s">
-        <v>1542</v>
+        <v>262</v>
       </c>
       <c r="J63" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>1564</v>
+        <v>272</v>
       </c>
       <c r="L63" t="s">
         <v>25</v>
       </c>
       <c r="M63" t="s">
-        <v>1565</v>
+        <v>23</v>
       </c>
       <c r="N63" t="s">
-        <v>1566</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>1567</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>1568</v>
+        <v>274</v>
       </c>
       <c r="F64" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>1541</v>
+        <v>275</v>
       </c>
       <c r="I64" t="s">
-        <v>1542</v>
+        <v>276</v>
       </c>
       <c r="J64" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>1569</v>
+        <v>277</v>
       </c>
       <c r="L64" t="s">
         <v>25</v>
       </c>
       <c r="M64" t="s">
-        <v>1570</v>
+        <v>278</v>
       </c>
       <c r="N64" t="s">
-        <v>1571</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>1572</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>1573</v>
+        <v>281</v>
       </c>
       <c r="F65" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>1541</v>
+        <v>275</v>
       </c>
       <c r="I65" t="s">
-        <v>1542</v>
+        <v>276</v>
       </c>
       <c r="J65" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>1574</v>
+        <v>282</v>
       </c>
       <c r="L65" t="s">
         <v>25</v>
       </c>
       <c r="M65" t="s">
-        <v>1575</v>
+        <v>283</v>
       </c>
       <c r="N65" t="s">
-        <v>1546</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>1576</v>
+        <v>285</v>
       </c>
       <c r="E66" t="s">
-        <v>1577</v>
+        <v>286</v>
       </c>
       <c r="F66" t="s">
-        <v>1308</v>
+        <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H66" t="s">
-        <v>1541</v>
+        <v>275</v>
       </c>
       <c r="I66" t="s">
-        <v>1542</v>
+        <v>276</v>
       </c>
       <c r="J66" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>1578</v>
+        <v>23</v>
       </c>
       <c r="L66" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M66" t="s">
-        <v>1579</v>
+        <v>287</v>
       </c>
       <c r="N66" t="s">
-        <v>1580</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>1581</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>1582</v>
+        <v>274</v>
       </c>
       <c r="F67" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>1541</v>
+        <v>289</v>
       </c>
       <c r="I67" t="s">
-        <v>1542</v>
+        <v>276</v>
       </c>
       <c r="J67" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>1583</v>
+        <v>277</v>
       </c>
       <c r="L67" t="s">
         <v>25</v>
       </c>
       <c r="M67" t="s">
-        <v>1584</v>
+        <v>278</v>
       </c>
       <c r="N67" t="s">
-        <v>1585</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>1586</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>1587</v>
+        <v>281</v>
       </c>
       <c r="F68" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
       </c>
       <c r="H68" t="s">
-        <v>1541</v>
+        <v>289</v>
       </c>
       <c r="I68" t="s">
-        <v>1542</v>
+        <v>276</v>
       </c>
       <c r="J68" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K68" t="s">
-        <v>1588</v>
+        <v>282</v>
       </c>
       <c r="L68" t="s">
         <v>25</v>
       </c>
       <c r="M68" t="s">
-        <v>1589</v>
+        <v>283</v>
       </c>
       <c r="N68" t="s">
-        <v>1590</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>1591</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>1592</v>
+        <v>286</v>
       </c>
       <c r="F69" t="s">
-        <v>1308</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H69" t="s">
-        <v>1541</v>
+        <v>289</v>
       </c>
       <c r="I69" t="s">
-        <v>1542</v>
+        <v>276</v>
       </c>
       <c r="J69" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>1588</v>
+        <v>23</v>
       </c>
       <c r="L69" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M69" t="s">
-        <v>1593</v>
+        <v>287</v>
       </c>
       <c r="N69" t="s">
-        <v>1594</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>1595</v>
+        <v>290</v>
       </c>
       <c r="E70" t="s">
-        <v>1596</v>
+        <v>291</v>
       </c>
       <c r="F70" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H70" t="s">
-        <v>1541</v>
+        <v>292</v>
       </c>
       <c r="I70" t="s">
-        <v>1542</v>
+        <v>293</v>
       </c>
       <c r="J70" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>1588</v>
+        <v>294</v>
       </c>
       <c r="L70" t="s">
         <v>25</v>
       </c>
       <c r="M70" t="s">
-        <v>1597</v>
+        <v>295</v>
       </c>
       <c r="N70" t="s">
-        <v>1598</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>1599</v>
+        <v>297</v>
       </c>
       <c r="E71" t="s">
-        <v>1600</v>
+        <v>298</v>
       </c>
       <c r="F71" t="s">
-        <v>1308</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H71" t="s">
-        <v>1541</v>
+        <v>292</v>
       </c>
       <c r="I71" t="s">
-        <v>1542</v>
+        <v>293</v>
       </c>
       <c r="J71" t="s">
-        <v>1543</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>1601</v>
+        <v>23</v>
       </c>
       <c r="L71" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M71" t="s">
-        <v>1602</v>
+        <v>299</v>
       </c>
       <c r="N71" t="s">
-        <v>1603</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>1604</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>1605</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>1606</v>
+        <v>301</v>
       </c>
       <c r="I72" t="s">
-        <v>1607</v>
+        <v>22</v>
       </c>
       <c r="J72" t="s">
-        <v>1608</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>1609</v>
+        <v>24</v>
       </c>
       <c r="L72" t="s">
         <v>25</v>
       </c>
       <c r="M72" t="s">
-        <v>1610</v>
+        <v>26</v>
       </c>
       <c r="N72" t="s">
-        <v>1611</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>1612</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>1613</v>
+        <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G73" t="s">
         <v>30</v>
       </c>
       <c r="H73" t="s">
-        <v>1606</v>
+        <v>301</v>
       </c>
       <c r="I73" t="s">
-        <v>1607</v>
+        <v>22</v>
       </c>
       <c r="J73" t="s">
-        <v>1608</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>1614</v>
+        <v>31</v>
       </c>
       <c r="L73" t="s">
         <v>25</v>
       </c>
       <c r="M73" t="s">
-        <v>1615</v>
+        <v>32</v>
       </c>
       <c r="N73" t="s">
-        <v>1616</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>1617</v>
+        <v>34</v>
       </c>
       <c r="E74" t="s">
-        <v>1618</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H74" t="s">
-        <v>1619</v>
+        <v>301</v>
       </c>
       <c r="I74" t="s">
-        <v>1620</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>1621</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>1622</v>
+        <v>36</v>
       </c>
       <c r="L74" t="s">
         <v>25</v>
       </c>
       <c r="M74" t="s">
-        <v>1623</v>
+        <v>37</v>
       </c>
       <c r="N74" t="s">
-        <v>1624</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>1625</v>
+        <v>60</v>
       </c>
       <c r="E75" t="s">
-        <v>1626</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>1619</v>
+        <v>302</v>
       </c>
       <c r="I75" t="s">
-        <v>1620</v>
+        <v>303</v>
       </c>
       <c r="J75" t="s">
-        <v>1621</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>1627</v>
+        <v>23</v>
       </c>
       <c r="L75" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M75" t="s">
-        <v>1628</v>
+        <v>65</v>
       </c>
       <c r="N75" t="s">
-        <v>1629</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
-        <v>1630</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>1631</v>
+        <v>68</v>
       </c>
       <c r="F76" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>1632</v>
+        <v>302</v>
       </c>
       <c r="I76" t="s">
-        <v>1620</v>
+        <v>303</v>
       </c>
       <c r="J76" t="s">
-        <v>1633</v>
+        <v>23</v>
       </c>
       <c r="K76" t="s">
-        <v>1634</v>
+        <v>23</v>
       </c>
       <c r="L76" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="M76" t="s">
-        <v>1635</v>
+        <v>69</v>
       </c>
       <c r="N76" t="s">
-        <v>1636</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>1637</v>
+        <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>1638</v>
+        <v>72</v>
       </c>
       <c r="F77" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
         <v>73</v>
       </c>
       <c r="H77" t="s">
-        <v>1639</v>
+        <v>304</v>
       </c>
       <c r="I77" t="s">
-        <v>1620</v>
+        <v>75</v>
       </c>
       <c r="J77" t="s">
-        <v>1640</v>
+        <v>23</v>
       </c>
       <c r="K77" t="s">
-        <v>1641</v>
+        <v>76</v>
       </c>
       <c r="L77" t="s">
         <v>25</v>
       </c>
       <c r="M77" t="s">
-        <v>1642</v>
+        <v>77</v>
       </c>
       <c r="N77" t="s">
-        <v>1643</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>1637</v>
+        <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>1638</v>
+        <v>80</v>
       </c>
       <c r="F78" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H78" t="s">
-        <v>1644</v>
+        <v>304</v>
       </c>
       <c r="I78" t="s">
-        <v>1645</v>
+        <v>75</v>
       </c>
       <c r="J78" t="s">
-        <v>1646</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>1647</v>
+        <v>76</v>
       </c>
       <c r="L78" t="s">
         <v>25</v>
       </c>
       <c r="M78" t="s">
-        <v>1642</v>
+        <v>81</v>
       </c>
       <c r="N78" t="s">
-        <v>1643</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>1648</v>
+        <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>1649</v>
+        <v>84</v>
       </c>
       <c r="F79" t="s">
-        <v>1308</v>
+        <v>23</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>1644</v>
+        <v>304</v>
       </c>
       <c r="I79" t="s">
-        <v>1645</v>
+        <v>75</v>
       </c>
       <c r="J79" t="s">
-        <v>1646</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>1650</v>
+        <v>86</v>
       </c>
       <c r="L79" t="s">
         <v>25</v>
       </c>
       <c r="M79" t="s">
-        <v>1651</v>
+        <v>23</v>
       </c>
       <c r="N79" t="s">
-        <v>1652</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>1653</v>
+        <v>305</v>
       </c>
       <c r="E80" t="s">
-        <v>1654</v>
+        <v>306</v>
       </c>
       <c r="F80" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
         <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>1655</v>
+        <v>307</v>
       </c>
       <c r="I80" t="s">
-        <v>1645</v>
+        <v>308</v>
       </c>
       <c r="J80" t="s">
-        <v>1656</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>1657</v>
+        <v>309</v>
       </c>
       <c r="L80" t="s">
         <v>25</v>
       </c>
       <c r="M80" t="s">
-        <v>1658</v>
+        <v>310</v>
       </c>
       <c r="N80" t="s">
-        <v>1659</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>1660</v>
+        <v>305</v>
       </c>
       <c r="E81" t="s">
-        <v>1661</v>
+        <v>306</v>
       </c>
       <c r="F81" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
         <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>1662</v>
+        <v>312</v>
       </c>
       <c r="I81" t="s">
-        <v>1645</v>
+        <v>308</v>
       </c>
       <c r="J81" t="s">
-        <v>1663</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>1664</v>
+        <v>309</v>
       </c>
       <c r="L81" t="s">
         <v>25</v>
       </c>
       <c r="M81" t="s">
-        <v>1665</v>
+        <v>310</v>
       </c>
       <c r="N81" t="s">
-        <v>1666</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
-        <v>1667</v>
+        <v>238</v>
       </c>
       <c r="E82" t="s">
-        <v>1668</v>
+        <v>239</v>
       </c>
       <c r="F82" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
         <v>30</v>
       </c>
       <c r="H82" t="s">
-        <v>1662</v>
+        <v>313</v>
       </c>
       <c r="I82" t="s">
-        <v>1645</v>
+        <v>241</v>
       </c>
       <c r="J82" t="s">
-        <v>1663</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>1669</v>
+        <v>242</v>
       </c>
       <c r="L82" t="s">
         <v>25</v>
       </c>
       <c r="M82" t="s">
-        <v>1642</v>
+        <v>243</v>
       </c>
       <c r="N82" t="s">
-        <v>1670</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>1671</v>
+        <v>245</v>
       </c>
       <c r="E83" t="s">
-        <v>1672</v>
+        <v>246</v>
       </c>
       <c r="F83" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
       </c>
       <c r="H83" t="s">
-        <v>1662</v>
+        <v>313</v>
       </c>
       <c r="I83" t="s">
-        <v>1645</v>
+        <v>241</v>
       </c>
       <c r="J83" t="s">
-        <v>1663</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>1673</v>
+        <v>247</v>
       </c>
       <c r="L83" t="s">
         <v>25</v>
       </c>
       <c r="M83" t="s">
-        <v>1674</v>
+        <v>248</v>
       </c>
       <c r="N83" t="s">
-        <v>1675</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>1676</v>
+        <v>314</v>
       </c>
       <c r="E84" t="s">
-        <v>1677</v>
+        <v>315</v>
       </c>
       <c r="F84" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>1678</v>
+        <v>316</v>
       </c>
       <c r="I84" t="s">
-        <v>1645</v>
+        <v>317</v>
       </c>
       <c r="J84" t="s">
-        <v>1679</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>1680</v>
+        <v>318</v>
       </c>
       <c r="L84" t="s">
         <v>25</v>
       </c>
       <c r="M84" t="s">
-        <v>1681</v>
+        <v>319</v>
       </c>
       <c r="N84" t="s">
-        <v>1682</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>1683</v>
+        <v>320</v>
       </c>
       <c r="E85" t="s">
-        <v>1684</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G85" t="s">
         <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>1678</v>
+        <v>316</v>
       </c>
       <c r="I85" t="s">
-        <v>1645</v>
+        <v>317</v>
       </c>
       <c r="J85" t="s">
-        <v>1679</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>1685</v>
+        <v>322</v>
       </c>
       <c r="L85" t="s">
         <v>25</v>
       </c>
       <c r="M85" t="s">
-        <v>1686</v>
+        <v>323</v>
       </c>
       <c r="N85" t="s">
-        <v>1687</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>1688</v>
+        <v>324</v>
       </c>
       <c r="E86" t="s">
-        <v>1684</v>
+        <v>325</v>
       </c>
       <c r="F86" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G86" t="s">
         <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>1678</v>
+        <v>316</v>
       </c>
       <c r="I86" t="s">
-        <v>1645</v>
+        <v>317</v>
       </c>
       <c r="J86" t="s">
-        <v>1679</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>1689</v>
+        <v>322</v>
       </c>
       <c r="L86" t="s">
         <v>25</v>
       </c>
       <c r="M86" t="s">
-        <v>1690</v>
+        <v>326</v>
       </c>
       <c r="N86" t="s">
-        <v>1691</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>1637</v>
+        <v>327</v>
       </c>
       <c r="E87" t="s">
-        <v>1638</v>
+        <v>328</v>
       </c>
       <c r="F87" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G87" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>1692</v>
+        <v>316</v>
       </c>
       <c r="I87" t="s">
-        <v>1645</v>
+        <v>317</v>
       </c>
       <c r="J87" t="s">
-        <v>1693</v>
+        <v>23</v>
       </c>
       <c r="K87" t="s">
-        <v>1647</v>
+        <v>329</v>
       </c>
       <c r="L87" t="s">
         <v>25</v>
       </c>
       <c r="M87" t="s">
-        <v>1642</v>
+        <v>330</v>
       </c>
       <c r="N87" t="s">
-        <v>1643</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>1694</v>
+        <v>332</v>
       </c>
       <c r="E88" t="s">
-        <v>1695</v>
+        <v>333</v>
       </c>
       <c r="F88" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G88" t="s">
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>1692</v>
+        <v>316</v>
       </c>
       <c r="I88" t="s">
-        <v>1645</v>
+        <v>317</v>
       </c>
       <c r="J88" t="s">
-        <v>1693</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>1696</v>
+        <v>329</v>
       </c>
       <c r="L88" t="s">
         <v>25</v>
       </c>
       <c r="M88" t="s">
-        <v>1697</v>
+        <v>330</v>
       </c>
       <c r="N88" t="s">
-        <v>1698</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>1699</v>
+        <v>335</v>
       </c>
       <c r="E89" t="s">
-        <v>1700</v>
+        <v>336</v>
       </c>
       <c r="F89" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G89" t="s">
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>1701</v>
+        <v>316</v>
       </c>
       <c r="I89" t="s">
-        <v>1702</v>
+        <v>317</v>
       </c>
       <c r="J89" t="s">
-        <v>1703</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>1704</v>
+        <v>337</v>
       </c>
       <c r="L89" t="s">
         <v>25</v>
       </c>
       <c r="M89" t="s">
-        <v>1705</v>
+        <v>338</v>
       </c>
       <c r="N89" t="s">
-        <v>1706</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>1707</v>
+        <v>340</v>
       </c>
       <c r="E90" t="s">
-        <v>1708</v>
+        <v>341</v>
       </c>
       <c r="F90" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H90" t="s">
-        <v>1701</v>
+        <v>316</v>
       </c>
       <c r="I90" t="s">
-        <v>1702</v>
+        <v>317</v>
       </c>
       <c r="J90" t="s">
-        <v>1703</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>1709</v>
+        <v>318</v>
       </c>
       <c r="L90" t="s">
         <v>25</v>
       </c>
       <c r="M90" t="s">
-        <v>1710</v>
+        <v>342</v>
       </c>
       <c r="N90" t="s">
-        <v>1711</v>
+        <v>343</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>1712</v>
+        <v>344</v>
       </c>
       <c r="E91" t="s">
-        <v>1713</v>
+        <v>345</v>
       </c>
       <c r="F91" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H91" t="s">
-        <v>1701</v>
+        <v>316</v>
       </c>
       <c r="I91" t="s">
-        <v>1702</v>
+        <v>317</v>
       </c>
       <c r="J91" t="s">
-        <v>1703</v>
+        <v>23</v>
       </c>
       <c r="K91" t="s">
-        <v>1714</v>
+        <v>322</v>
       </c>
       <c r="L91" t="s">
         <v>25</v>
       </c>
       <c r="M91" t="s">
-        <v>1715</v>
+        <v>323</v>
       </c>
       <c r="N91" t="s">
-        <v>1716</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>1717</v>
+        <v>346</v>
       </c>
       <c r="E92" t="s">
-        <v>1718</v>
+        <v>347</v>
       </c>
       <c r="F92" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G92" t="s">
         <v>30</v>
       </c>
       <c r="H92" t="s">
-        <v>1701</v>
+        <v>316</v>
       </c>
       <c r="I92" t="s">
-        <v>1702</v>
+        <v>317</v>
       </c>
       <c r="J92" t="s">
-        <v>1703</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
-        <v>1714</v>
+        <v>348</v>
       </c>
       <c r="L92" t="s">
         <v>25</v>
       </c>
       <c r="M92" t="s">
-        <v>1719</v>
+        <v>349</v>
       </c>
       <c r="N92" t="s">
-        <v>1716</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>1720</v>
+        <v>351</v>
       </c>
       <c r="E93" t="s">
-        <v>1721</v>
+        <v>352</v>
       </c>
       <c r="F93" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
       </c>
       <c r="H93" t="s">
-        <v>1701</v>
+        <v>316</v>
       </c>
       <c r="I93" t="s">
-        <v>1702</v>
+        <v>317</v>
       </c>
       <c r="J93" t="s">
-        <v>1703</v>
+        <v>23</v>
       </c>
       <c r="K93" t="s">
-        <v>1714</v>
+        <v>329</v>
       </c>
       <c r="L93" t="s">
         <v>25</v>
       </c>
       <c r="M93" t="s">
-        <v>1719</v>
+        <v>353</v>
       </c>
       <c r="N93" t="s">
-        <v>1722</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>1723</v>
+        <v>354</v>
       </c>
       <c r="E94" t="s">
-        <v>1724</v>
+        <v>355</v>
       </c>
       <c r="F94" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
       </c>
       <c r="H94" t="s">
-        <v>1701</v>
+        <v>316</v>
       </c>
       <c r="I94" t="s">
-        <v>1702</v>
+        <v>317</v>
       </c>
       <c r="J94" t="s">
-        <v>1703</v>
+        <v>23</v>
       </c>
       <c r="K94" t="s">
-        <v>1714</v>
+        <v>356</v>
       </c>
       <c r="L94" t="s">
         <v>25</v>
       </c>
       <c r="M94" t="s">
-        <v>1719</v>
+        <v>357</v>
       </c>
       <c r="N94" t="s">
-        <v>1722</v>
+        <v>358</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>1725</v>
+        <v>359</v>
       </c>
       <c r="E95" t="s">
-        <v>1726</v>
+        <v>360</v>
       </c>
       <c r="F95" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H95" t="s">
-        <v>1701</v>
+        <v>316</v>
       </c>
       <c r="I95" t="s">
-        <v>1702</v>
+        <v>317</v>
       </c>
       <c r="J95" t="s">
-        <v>1703</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>1727</v>
+        <v>337</v>
       </c>
       <c r="L95" t="s">
         <v>25</v>
       </c>
       <c r="M95" t="s">
-        <v>1719</v>
+        <v>361</v>
       </c>
       <c r="N95" t="s">
-        <v>1722</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>1303</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
-        <v>1304</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>1305</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>1728</v>
+        <v>98</v>
       </c>
       <c r="E96" t="s">
-        <v>1729</v>
+        <v>99</v>
       </c>
       <c r="F96" t="s">
-        <v>1308</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H96" t="s">
-        <v>1701</v>
+        <v>363</v>
       </c>
       <c r="I96" t="s">
-        <v>1702</v>
+        <v>101</v>
       </c>
       <c r="J96" t="s">
-        <v>1703</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>1727</v>
+        <v>102</v>
       </c>
       <c r="L96" t="s">
         <v>25</v>
       </c>
       <c r="M96" t="s">
-        <v>1730</v>
+        <v>103</v>
       </c>
       <c r="N96" t="s">
-        <v>1722</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97">
@@ -29595,6 +29595,4186 @@
       </c>
       <c r="N547" t="s">
         <v>1295</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C548" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G548" t="s">
+        <v>20</v>
+      </c>
+      <c r="H548" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I548" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J548" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K548" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L548" t="s">
+        <v>25</v>
+      </c>
+      <c r="M548" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N548" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C549" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D549" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G549" t="s">
+        <v>20</v>
+      </c>
+      <c r="H549" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I549" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J549" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K549" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L549" t="s">
+        <v>25</v>
+      </c>
+      <c r="M549" t="s">
+        <v>1313</v>
+      </c>
+      <c r="N549" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C550" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G550" t="s">
+        <v>30</v>
+      </c>
+      <c r="H550" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I550" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J550" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K550" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L550" t="s">
+        <v>25</v>
+      </c>
+      <c r="M550" t="s">
+        <v>1320</v>
+      </c>
+      <c r="N550" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C551" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G551" t="s">
+        <v>73</v>
+      </c>
+      <c r="H551" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I551" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J551" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K551" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L551" t="s">
+        <v>25</v>
+      </c>
+      <c r="M551" t="s">
+        <v>1328</v>
+      </c>
+      <c r="N551" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C552" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G552" t="s">
+        <v>20</v>
+      </c>
+      <c r="H552" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I552" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J552" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K552" t="s">
+        <v>1332</v>
+      </c>
+      <c r="L552" t="s">
+        <v>25</v>
+      </c>
+      <c r="M552" t="s">
+        <v>1333</v>
+      </c>
+      <c r="N552" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G553" t="s">
+        <v>73</v>
+      </c>
+      <c r="H553" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I553" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J553" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K553" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L553" t="s">
+        <v>25</v>
+      </c>
+      <c r="M553" t="s">
+        <v>1341</v>
+      </c>
+      <c r="N553" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C554" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G554" t="s">
+        <v>73</v>
+      </c>
+      <c r="H554" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I554" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J554" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K554" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L554" t="s">
+        <v>25</v>
+      </c>
+      <c r="M554" t="s">
+        <v>1346</v>
+      </c>
+      <c r="N554" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C555" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G555" t="s">
+        <v>73</v>
+      </c>
+      <c r="H555" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I555" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J555" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K555" t="s">
+        <v>1345</v>
+      </c>
+      <c r="L555" t="s">
+        <v>25</v>
+      </c>
+      <c r="M555" t="s">
+        <v>1346</v>
+      </c>
+      <c r="N555" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C556" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G556" t="s">
+        <v>73</v>
+      </c>
+      <c r="H556" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I556" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J556" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K556" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L556" t="s">
+        <v>25</v>
+      </c>
+      <c r="M556" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N556" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G557" t="s">
+        <v>73</v>
+      </c>
+      <c r="H557" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I557" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J557" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K557" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L557" t="s">
+        <v>25</v>
+      </c>
+      <c r="M557" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N557" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G558" t="s">
+        <v>73</v>
+      </c>
+      <c r="H558" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I558" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J558" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K558" t="s">
+        <v>1360</v>
+      </c>
+      <c r="L558" t="s">
+        <v>25</v>
+      </c>
+      <c r="M558" t="s">
+        <v>1361</v>
+      </c>
+      <c r="N558" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E559" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G559" t="s">
+        <v>73</v>
+      </c>
+      <c r="H559" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I559" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J559" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K559" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L559" t="s">
+        <v>25</v>
+      </c>
+      <c r="M559" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N559" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D560" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E560" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G560" t="s">
+        <v>73</v>
+      </c>
+      <c r="H560" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I560" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J560" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K560" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L560" t="s">
+        <v>25</v>
+      </c>
+      <c r="M560" t="s">
+        <v>1369</v>
+      </c>
+      <c r="N560" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D561" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E561" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G561" t="s">
+        <v>73</v>
+      </c>
+      <c r="H561" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I561" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J561" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K561" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L561" t="s">
+        <v>25</v>
+      </c>
+      <c r="M561" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N561" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E562" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G562" t="s">
+        <v>73</v>
+      </c>
+      <c r="H562" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I562" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J562" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K562" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L562" t="s">
+        <v>25</v>
+      </c>
+      <c r="M562" t="s">
+        <v>1379</v>
+      </c>
+      <c r="N562" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E563" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G563" t="s">
+        <v>73</v>
+      </c>
+      <c r="H563" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I563" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J563" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K563" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L563" t="s">
+        <v>25</v>
+      </c>
+      <c r="M563" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N563" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C564" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E564" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G564" t="s">
+        <v>73</v>
+      </c>
+      <c r="H564" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I564" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J564" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K564" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L564" t="s">
+        <v>25</v>
+      </c>
+      <c r="M564" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N564" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C565" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E565" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G565" t="s">
+        <v>20</v>
+      </c>
+      <c r="H565" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I565" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J565" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K565" t="s">
+        <v>1389</v>
+      </c>
+      <c r="L565" t="s">
+        <v>25</v>
+      </c>
+      <c r="M565" t="s">
+        <v>1390</v>
+      </c>
+      <c r="N565" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D566" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E566" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G566" t="s">
+        <v>20</v>
+      </c>
+      <c r="H566" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I566" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J566" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K566" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L566" t="s">
+        <v>25</v>
+      </c>
+      <c r="M566" t="s">
+        <v>1395</v>
+      </c>
+      <c r="N566" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C567" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D567" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E567" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G567" t="s">
+        <v>20</v>
+      </c>
+      <c r="H567" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I567" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J567" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K567" t="s">
+        <v>1399</v>
+      </c>
+      <c r="L567" t="s">
+        <v>25</v>
+      </c>
+      <c r="M567" t="s">
+        <v>1400</v>
+      </c>
+      <c r="N567" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C568" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E568" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G568" t="s">
+        <v>20</v>
+      </c>
+      <c r="H568" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I568" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J568" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K568" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L568" t="s">
+        <v>25</v>
+      </c>
+      <c r="M568" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N568" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C569" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D569" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E569" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G569" t="s">
+        <v>20</v>
+      </c>
+      <c r="H569" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I569" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J569" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K569" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L569" t="s">
+        <v>25</v>
+      </c>
+      <c r="M569" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N569" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C570" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D570" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E570" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G570" t="s">
+        <v>20</v>
+      </c>
+      <c r="H570" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I570" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J570" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K570" t="s">
+        <v>1410</v>
+      </c>
+      <c r="L570" t="s">
+        <v>25</v>
+      </c>
+      <c r="M570" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N570" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C571" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D571" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E571" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G571" t="s">
+        <v>20</v>
+      </c>
+      <c r="H571" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I571" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J571" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K571" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L571" t="s">
+        <v>25</v>
+      </c>
+      <c r="M571" t="s">
+        <v>1413</v>
+      </c>
+      <c r="N571" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C572" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E572" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G572" t="s">
+        <v>20</v>
+      </c>
+      <c r="H572" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I572" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J572" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K572" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L572" t="s">
+        <v>25</v>
+      </c>
+      <c r="M572" t="s">
+        <v>1417</v>
+      </c>
+      <c r="N572" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C573" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G573" t="s">
+        <v>20</v>
+      </c>
+      <c r="H573" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I573" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J573" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K573" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L573" t="s">
+        <v>25</v>
+      </c>
+      <c r="M573" t="s">
+        <v>1420</v>
+      </c>
+      <c r="N573" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C574" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G574" t="s">
+        <v>20</v>
+      </c>
+      <c r="H574" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I574" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J574" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K574" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L574" t="s">
+        <v>25</v>
+      </c>
+      <c r="M574" t="s">
+        <v>1420</v>
+      </c>
+      <c r="N574" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C575" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G575" t="s">
+        <v>20</v>
+      </c>
+      <c r="H575" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I575" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J575" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K575" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L575" t="s">
+        <v>25</v>
+      </c>
+      <c r="M575" t="s">
+        <v>1420</v>
+      </c>
+      <c r="N575" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C576" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G576" t="s">
+        <v>20</v>
+      </c>
+      <c r="H576" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I576" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J576" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K576" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L576" t="s">
+        <v>25</v>
+      </c>
+      <c r="M576" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N576" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C577" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G577" t="s">
+        <v>20</v>
+      </c>
+      <c r="H577" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I577" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J577" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K577" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L577" t="s">
+        <v>25</v>
+      </c>
+      <c r="M577" t="s">
+        <v>1428</v>
+      </c>
+      <c r="N577" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C578" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G578" t="s">
+        <v>20</v>
+      </c>
+      <c r="H578" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I578" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J578" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K578" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L578" t="s">
+        <v>25</v>
+      </c>
+      <c r="M578" t="s">
+        <v>1435</v>
+      </c>
+      <c r="N578" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C579" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D579" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F579" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G579" t="s">
+        <v>20</v>
+      </c>
+      <c r="H579" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I579" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J579" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K579" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L579" t="s">
+        <v>25</v>
+      </c>
+      <c r="M579" t="s">
+        <v>1439</v>
+      </c>
+      <c r="N579" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D580" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G580" t="s">
+        <v>20</v>
+      </c>
+      <c r="H580" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I580" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J580" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K580" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L580" t="s">
+        <v>25</v>
+      </c>
+      <c r="M580" t="s">
+        <v>1439</v>
+      </c>
+      <c r="N580" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C581" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G581" t="s">
+        <v>20</v>
+      </c>
+      <c r="H581" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I581" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J581" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K581" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L581" t="s">
+        <v>25</v>
+      </c>
+      <c r="M581" t="s">
+        <v>1444</v>
+      </c>
+      <c r="N581" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C582" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D582" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G582" t="s">
+        <v>20</v>
+      </c>
+      <c r="H582" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I582" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J582" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K582" t="s">
+        <v>1448</v>
+      </c>
+      <c r="L582" t="s">
+        <v>25</v>
+      </c>
+      <c r="M582" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N582" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D583" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G583" t="s">
+        <v>20</v>
+      </c>
+      <c r="H583" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I583" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J583" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K583" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L583" t="s">
+        <v>25</v>
+      </c>
+      <c r="M583" t="s">
+        <v>1454</v>
+      </c>
+      <c r="N583" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C584" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F584" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G584" t="s">
+        <v>20</v>
+      </c>
+      <c r="H584" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I584" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J584" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K584" t="s">
+        <v>1458</v>
+      </c>
+      <c r="L584" t="s">
+        <v>25</v>
+      </c>
+      <c r="M584" t="s">
+        <v>1459</v>
+      </c>
+      <c r="N584" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F585" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G585" t="s">
+        <v>20</v>
+      </c>
+      <c r="H585" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I585" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J585" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K585" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L585" t="s">
+        <v>25</v>
+      </c>
+      <c r="M585" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N585" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D586" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F586" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G586" t="s">
+        <v>20</v>
+      </c>
+      <c r="H586" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I586" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J586" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K586" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L586" t="s">
+        <v>25</v>
+      </c>
+      <c r="M586" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N586" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D587" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G587" t="s">
+        <v>20</v>
+      </c>
+      <c r="H587" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I587" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J587" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K587" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L587" t="s">
+        <v>25</v>
+      </c>
+      <c r="M587" t="s">
+        <v>1471</v>
+      </c>
+      <c r="N587" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F588" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G588" t="s">
+        <v>20</v>
+      </c>
+      <c r="H588" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I588" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J588" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K588" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L588" t="s">
+        <v>25</v>
+      </c>
+      <c r="M588" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N588" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D589" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F589" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G589" t="s">
+        <v>20</v>
+      </c>
+      <c r="H589" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I589" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J589" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K589" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L589" t="s">
+        <v>25</v>
+      </c>
+      <c r="M589" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N589" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C590" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F590" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G590" t="s">
+        <v>20</v>
+      </c>
+      <c r="H590" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I590" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J590" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K590" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L590" t="s">
+        <v>25</v>
+      </c>
+      <c r="M590" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N590" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C591" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F591" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G591" t="s">
+        <v>20</v>
+      </c>
+      <c r="H591" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I591" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J591" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K591" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L591" t="s">
+        <v>25</v>
+      </c>
+      <c r="M591" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N591" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C592" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G592" t="s">
+        <v>20</v>
+      </c>
+      <c r="H592" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I592" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J592" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K592" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L592" t="s">
+        <v>25</v>
+      </c>
+      <c r="M592" t="s">
+        <v>1490</v>
+      </c>
+      <c r="N592" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C593" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G593" t="s">
+        <v>20</v>
+      </c>
+      <c r="H593" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I593" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J593" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K593" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L593" t="s">
+        <v>25</v>
+      </c>
+      <c r="M593" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N593" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D594" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G594" t="s">
+        <v>20</v>
+      </c>
+      <c r="H594" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I594" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J594" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K594" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L594" t="s">
+        <v>25</v>
+      </c>
+      <c r="M594" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N594" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F595" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G595" t="s">
+        <v>20</v>
+      </c>
+      <c r="H595" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I595" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J595" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K595" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L595" t="s">
+        <v>25</v>
+      </c>
+      <c r="M595" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N595" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C596" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G596" t="s">
+        <v>20</v>
+      </c>
+      <c r="H596" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I596" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J596" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K596" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L596" t="s">
+        <v>25</v>
+      </c>
+      <c r="M596" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N596" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F597" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G597" t="s">
+        <v>20</v>
+      </c>
+      <c r="H597" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I597" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J597" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K597" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L597" t="s">
+        <v>25</v>
+      </c>
+      <c r="M597" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N597" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D598" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F598" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G598" t="s">
+        <v>20</v>
+      </c>
+      <c r="H598" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I598" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J598" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K598" t="s">
+        <v>1475</v>
+      </c>
+      <c r="L598" t="s">
+        <v>25</v>
+      </c>
+      <c r="M598" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N598" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D599" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F599" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G599" t="s">
+        <v>20</v>
+      </c>
+      <c r="H599" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I599" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J599" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K599" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L599" t="s">
+        <v>25</v>
+      </c>
+      <c r="M599" t="s">
+        <v>1514</v>
+      </c>
+      <c r="N599" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D600" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G600" t="s">
+        <v>20</v>
+      </c>
+      <c r="H600" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I600" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J600" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K600" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L600" t="s">
+        <v>25</v>
+      </c>
+      <c r="M600" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N600" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D601" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G601" t="s">
+        <v>20</v>
+      </c>
+      <c r="H601" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I601" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J601" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K601" t="s">
+        <v>1523</v>
+      </c>
+      <c r="L601" t="s">
+        <v>25</v>
+      </c>
+      <c r="M601" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N601" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C602" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D602" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E602" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F602" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G602" t="s">
+        <v>20</v>
+      </c>
+      <c r="H602" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I602" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J602" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K602" t="s">
+        <v>1528</v>
+      </c>
+      <c r="L602" t="s">
+        <v>25</v>
+      </c>
+      <c r="M602" t="s">
+        <v>1524</v>
+      </c>
+      <c r="N602" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C603" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D603" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G603" t="s">
+        <v>30</v>
+      </c>
+      <c r="H603" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I603" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J603" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K603" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L603" t="s">
+        <v>25</v>
+      </c>
+      <c r="M603" t="s">
+        <v>1533</v>
+      </c>
+      <c r="N603" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C604" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D604" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F604" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G604" t="s">
+        <v>30</v>
+      </c>
+      <c r="H604" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I604" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J604" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K604" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L604" t="s">
+        <v>25</v>
+      </c>
+      <c r="M604" t="s">
+        <v>1537</v>
+      </c>
+      <c r="N604" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C605" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G605" t="s">
+        <v>73</v>
+      </c>
+      <c r="H605" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I605" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J605" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K605" t="s">
+        <v>1544</v>
+      </c>
+      <c r="L605" t="s">
+        <v>25</v>
+      </c>
+      <c r="M605" t="s">
+        <v>1545</v>
+      </c>
+      <c r="N605" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C606" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D606" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F606" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G606" t="s">
+        <v>20</v>
+      </c>
+      <c r="H606" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I606" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J606" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K606" t="s">
+        <v>1549</v>
+      </c>
+      <c r="L606" t="s">
+        <v>25</v>
+      </c>
+      <c r="M606" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N606" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F607" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G607" t="s">
+        <v>20</v>
+      </c>
+      <c r="H607" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I607" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J607" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K607" t="s">
+        <v>1554</v>
+      </c>
+      <c r="L607" t="s">
+        <v>25</v>
+      </c>
+      <c r="M607" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N607" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F608" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G608" t="s">
+        <v>20</v>
+      </c>
+      <c r="H608" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I608" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J608" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K608" t="s">
+        <v>1559</v>
+      </c>
+      <c r="L608" t="s">
+        <v>25</v>
+      </c>
+      <c r="M608" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N608" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F609" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G609" t="s">
+        <v>20</v>
+      </c>
+      <c r="H609" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I609" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J609" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K609" t="s">
+        <v>1564</v>
+      </c>
+      <c r="L609" t="s">
+        <v>25</v>
+      </c>
+      <c r="M609" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N609" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G610" t="s">
+        <v>20</v>
+      </c>
+      <c r="H610" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I610" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J610" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K610" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L610" t="s">
+        <v>25</v>
+      </c>
+      <c r="M610" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N610" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G611" t="s">
+        <v>30</v>
+      </c>
+      <c r="H611" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I611" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J611" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K611" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L611" t="s">
+        <v>25</v>
+      </c>
+      <c r="M611" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N611" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G612" t="s">
+        <v>30</v>
+      </c>
+      <c r="H612" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I612" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J612" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K612" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L612" t="s">
+        <v>25</v>
+      </c>
+      <c r="M612" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N612" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G613" t="s">
+        <v>30</v>
+      </c>
+      <c r="H613" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I613" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J613" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K613" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L613" t="s">
+        <v>25</v>
+      </c>
+      <c r="M613" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N613" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D614" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G614" t="s">
+        <v>30</v>
+      </c>
+      <c r="H614" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I614" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J614" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K614" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L614" t="s">
+        <v>25</v>
+      </c>
+      <c r="M614" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N614" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D615" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G615" t="s">
+        <v>30</v>
+      </c>
+      <c r="H615" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I615" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J615" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K615" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L615" t="s">
+        <v>25</v>
+      </c>
+      <c r="M615" t="s">
+        <v>1593</v>
+      </c>
+      <c r="N615" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D616" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E616" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F616" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G616" t="s">
+        <v>30</v>
+      </c>
+      <c r="H616" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I616" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J616" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K616" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L616" t="s">
+        <v>25</v>
+      </c>
+      <c r="M616" t="s">
+        <v>1597</v>
+      </c>
+      <c r="N616" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F617" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G617" t="s">
+        <v>30</v>
+      </c>
+      <c r="H617" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I617" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J617" t="s">
+        <v>1543</v>
+      </c>
+      <c r="K617" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L617" t="s">
+        <v>25</v>
+      </c>
+      <c r="M617" t="s">
+        <v>1602</v>
+      </c>
+      <c r="N617" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F618" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G618" t="s">
+        <v>30</v>
+      </c>
+      <c r="H618" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I618" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J618" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K618" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L618" t="s">
+        <v>25</v>
+      </c>
+      <c r="M618" t="s">
+        <v>1610</v>
+      </c>
+      <c r="N618" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D619" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E619" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F619" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G619" t="s">
+        <v>30</v>
+      </c>
+      <c r="H619" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I619" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J619" t="s">
+        <v>1608</v>
+      </c>
+      <c r="K619" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L619" t="s">
+        <v>25</v>
+      </c>
+      <c r="M619" t="s">
+        <v>1615</v>
+      </c>
+      <c r="N619" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F620" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G620" t="s">
+        <v>20</v>
+      </c>
+      <c r="H620" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I620" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J620" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K620" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L620" t="s">
+        <v>25</v>
+      </c>
+      <c r="M620" t="s">
+        <v>1623</v>
+      </c>
+      <c r="N620" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E621" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F621" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G621" t="s">
+        <v>30</v>
+      </c>
+      <c r="H621" t="s">
+        <v>1619</v>
+      </c>
+      <c r="I621" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J621" t="s">
+        <v>1621</v>
+      </c>
+      <c r="K621" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L621" t="s">
+        <v>25</v>
+      </c>
+      <c r="M621" t="s">
+        <v>1628</v>
+      </c>
+      <c r="N621" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D622" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E622" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F622" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G622" t="s">
+        <v>20</v>
+      </c>
+      <c r="H622" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I622" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J622" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K622" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L622" t="s">
+        <v>25</v>
+      </c>
+      <c r="M622" t="s">
+        <v>1635</v>
+      </c>
+      <c r="N622" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D623" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E623" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F623" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G623" t="s">
+        <v>73</v>
+      </c>
+      <c r="H623" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I623" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J623" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K623" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L623" t="s">
+        <v>25</v>
+      </c>
+      <c r="M623" t="s">
+        <v>1642</v>
+      </c>
+      <c r="N623" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D624" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E624" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F624" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G624" t="s">
+        <v>73</v>
+      </c>
+      <c r="H624" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I624" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J624" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K624" t="s">
+        <v>1647</v>
+      </c>
+      <c r="L624" t="s">
+        <v>25</v>
+      </c>
+      <c r="M624" t="s">
+        <v>1642</v>
+      </c>
+      <c r="N624" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D625" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E625" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F625" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G625" t="s">
+        <v>20</v>
+      </c>
+      <c r="H625" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I625" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J625" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K625" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L625" t="s">
+        <v>25</v>
+      </c>
+      <c r="M625" t="s">
+        <v>1651</v>
+      </c>
+      <c r="N625" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E626" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F626" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G626" t="s">
+        <v>20</v>
+      </c>
+      <c r="H626" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I626" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J626" t="s">
+        <v>1656</v>
+      </c>
+      <c r="K626" t="s">
+        <v>1657</v>
+      </c>
+      <c r="L626" t="s">
+        <v>25</v>
+      </c>
+      <c r="M626" t="s">
+        <v>1658</v>
+      </c>
+      <c r="N626" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D627" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E627" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F627" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G627" t="s">
+        <v>20</v>
+      </c>
+      <c r="H627" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I627" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J627" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K627" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L627" t="s">
+        <v>25</v>
+      </c>
+      <c r="M627" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N627" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E628" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F628" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G628" t="s">
+        <v>30</v>
+      </c>
+      <c r="H628" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I628" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J628" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K628" t="s">
+        <v>1669</v>
+      </c>
+      <c r="L628" t="s">
+        <v>25</v>
+      </c>
+      <c r="M628" t="s">
+        <v>1642</v>
+      </c>
+      <c r="N628" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D629" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E629" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F629" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G629" t="s">
+        <v>30</v>
+      </c>
+      <c r="H629" t="s">
+        <v>1662</v>
+      </c>
+      <c r="I629" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J629" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K629" t="s">
+        <v>1673</v>
+      </c>
+      <c r="L629" t="s">
+        <v>25</v>
+      </c>
+      <c r="M629" t="s">
+        <v>1674</v>
+      </c>
+      <c r="N629" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D630" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E630" t="s">
+        <v>1677</v>
+      </c>
+      <c r="F630" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G630" t="s">
+        <v>73</v>
+      </c>
+      <c r="H630" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I630" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J630" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K630" t="s">
+        <v>1680</v>
+      </c>
+      <c r="L630" t="s">
+        <v>25</v>
+      </c>
+      <c r="M630" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N630" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E631" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F631" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G631" t="s">
+        <v>20</v>
+      </c>
+      <c r="H631" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I631" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J631" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K631" t="s">
+        <v>1685</v>
+      </c>
+      <c r="L631" t="s">
+        <v>25</v>
+      </c>
+      <c r="M631" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N631" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E632" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F632" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G632" t="s">
+        <v>20</v>
+      </c>
+      <c r="H632" t="s">
+        <v>1678</v>
+      </c>
+      <c r="I632" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J632" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K632" t="s">
+        <v>1689</v>
+      </c>
+      <c r="L632" t="s">
+        <v>25</v>
+      </c>
+      <c r="M632" t="s">
+        <v>1690</v>
+      </c>
+      <c r="N632" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D633" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E633" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F633" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G633" t="s">
+        <v>73</v>
+      </c>
+      <c r="H633" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I633" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J633" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K633" t="s">
+        <v>1647</v>
+      </c>
+      <c r="L633" t="s">
+        <v>25</v>
+      </c>
+      <c r="M633" t="s">
+        <v>1642</v>
+      </c>
+      <c r="N633" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E634" t="s">
+        <v>1695</v>
+      </c>
+      <c r="F634" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G634" t="s">
+        <v>20</v>
+      </c>
+      <c r="H634" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I634" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J634" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K634" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L634" t="s">
+        <v>25</v>
+      </c>
+      <c r="M634" t="s">
+        <v>1697</v>
+      </c>
+      <c r="N634" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C635" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D635" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G635" t="s">
+        <v>20</v>
+      </c>
+      <c r="H635" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I635" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J635" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K635" t="s">
+        <v>1704</v>
+      </c>
+      <c r="L635" t="s">
+        <v>25</v>
+      </c>
+      <c r="M635" t="s">
+        <v>1705</v>
+      </c>
+      <c r="N635" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D636" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F636" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G636" t="s">
+        <v>20</v>
+      </c>
+      <c r="H636" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I636" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J636" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K636" t="s">
+        <v>1709</v>
+      </c>
+      <c r="L636" t="s">
+        <v>25</v>
+      </c>
+      <c r="M636" t="s">
+        <v>1710</v>
+      </c>
+      <c r="N636" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C637" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D637" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E637" t="s">
+        <v>1713</v>
+      </c>
+      <c r="F637" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G637" t="s">
+        <v>20</v>
+      </c>
+      <c r="H637" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I637" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J637" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K637" t="s">
+        <v>1714</v>
+      </c>
+      <c r="L637" t="s">
+        <v>25</v>
+      </c>
+      <c r="M637" t="s">
+        <v>1715</v>
+      </c>
+      <c r="N637" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D638" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E638" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F638" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G638" t="s">
+        <v>30</v>
+      </c>
+      <c r="H638" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I638" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J638" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K638" t="s">
+        <v>1714</v>
+      </c>
+      <c r="L638" t="s">
+        <v>25</v>
+      </c>
+      <c r="M638" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N638" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D639" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E639" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F639" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G639" t="s">
+        <v>30</v>
+      </c>
+      <c r="H639" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I639" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J639" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K639" t="s">
+        <v>1714</v>
+      </c>
+      <c r="L639" t="s">
+        <v>25</v>
+      </c>
+      <c r="M639" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N639" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C640" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D640" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E640" t="s">
+        <v>1724</v>
+      </c>
+      <c r="F640" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G640" t="s">
+        <v>30</v>
+      </c>
+      <c r="H640" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I640" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J640" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K640" t="s">
+        <v>1714</v>
+      </c>
+      <c r="L640" t="s">
+        <v>25</v>
+      </c>
+      <c r="M640" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N640" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C641" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D641" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E641" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F641" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G641" t="s">
+        <v>30</v>
+      </c>
+      <c r="H641" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I641" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J641" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K641" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L641" t="s">
+        <v>25</v>
+      </c>
+      <c r="M641" t="s">
+        <v>1719</v>
+      </c>
+      <c r="N641" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C642" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D642" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E642" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F642" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G642" t="s">
+        <v>30</v>
+      </c>
+      <c r="H642" t="s">
+        <v>1701</v>
+      </c>
+      <c r="I642" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J642" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K642" t="s">
+        <v>1727</v>
+      </c>
+      <c r="L642" t="s">
+        <v>25</v>
+      </c>
+      <c r="M642" t="s">
+        <v>1730</v>
+      </c>
+      <c r="N642" t="s">
+        <v>1722</v>
       </c>
     </row>
   </sheetData>
